--- a/src/Tests/Samples.VerifyExcelStream.verified.xlsx
+++ b/src/Tests/Samples.VerifyExcelStream.verified.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="10320" yWindow="3396" windowWidth="30960" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="0"/>
+  <calcPr fullPrecision="1" calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="188">
   <si>
     <t>First Name</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>15/10/2017</t>
-  </si>
-  <si>
     <t>Mara</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Great Britain</t>
   </si>
   <si>
-    <t>16/08/2016</t>
-  </si>
-  <si>
     <t>Philip</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>21/05/2015</t>
-  </si>
-  <si>
     <t>Kathleen</t>
   </si>
   <si>
@@ -95,15 +83,36 @@
   </si>
   <si>
     <t>Brumm</t>
+  </si>
+  <si>
+    <t>Etta</t>
+  </si>
+  <si>
+    <t>Hurn</t>
+  </si>
+  <si>
+    <t>Earlean</t>
+  </si>
+  <si>
+    <t>Melgar</t>
+  </si>
+  <si>
+    <t>Vincenza</t>
+  </si>
+  <si>
+    <t>Weiland</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>DOB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -115,11 +124,13 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -150,10 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -318,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,18 +480,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:H849"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" sqref="A8:XFD158"/>
+    <sheetView topLeftCell="A19" view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" customHeight="true" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.27734375" customWidth="1"/>
+    <col min="10" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -503,204 +517,1378 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="G2">
+        <v>1562</v>
       </c>
       <c r="H2">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+        <f>G2+A2</f>
+        <v>1563</v>
+      </c>
+      <c r="I2" s="3">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
       </c>
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="G3">
+        <v>1582</v>
       </c>
       <c r="H3">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+        <f>G3+A3</f>
+        <v>1584</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
       </c>
       <c r="F4">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
+      <c r="G4">
+        <v>2587</v>
       </c>
       <c r="H4">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+        <f>G4+A4</f>
+        <v>2590</v>
+      </c>
+      <c r="I4" s="3">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F5">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+      <c r="G5">
+        <v>3549</v>
       </c>
       <c r="H5">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+        <f>G5+A5</f>
+        <v>3553</v>
+      </c>
+      <c r="I5" s="3">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F6">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
+      <c r="G6">
+        <v>2468</v>
       </c>
       <c r="H6">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+        <f>G6+A6</f>
+        <v>2473</v>
+      </c>
+      <c r="I6" s="3">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F7">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>2554</v>
+      </c>
+      <c r="H7">
+        <f>G7+A7</f>
+        <v>2560</v>
+      </c>
+      <c r="I7" s="3">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>3598</v>
+      </c>
+      <c r="H8">
+        <f>G8+A8</f>
+        <v>3605</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>2456</v>
+      </c>
+      <c r="H9">
+        <f>G9+A9</f>
+        <v>2464</v>
+      </c>
+      <c r="I9" s="3">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>6548</v>
+      </c>
+      <c r="H10">
+        <f>G10+A10</f>
+        <v>6557</v>
+      </c>
+      <c r="I10" s="3">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>1562</v>
+      </c>
+      <c r="H11">
+        <f>G11+A11</f>
+        <v>1563</v>
+      </c>
+      <c r="I11" s="3">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>1582</v>
+      </c>
+      <c r="H12">
+        <f>G12+A12</f>
+        <v>1584</v>
+      </c>
+      <c r="I12" s="3">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>2587</v>
+      </c>
+      <c r="H13">
+        <f>G13+A13</f>
+        <v>2590</v>
+      </c>
+      <c r="I13" s="3">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>3549</v>
+      </c>
+      <c r="H14">
+        <f>G14+A14</f>
+        <v>3553</v>
+      </c>
+      <c r="I14" s="3">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>2468</v>
+      </c>
+      <c r="H15">
+        <f>G15+A15</f>
+        <v>2473</v>
+      </c>
+      <c r="I15" s="3">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
         <v>2554</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
+      <c r="H16">
+        <f>G16+A16</f>
+        <v>2560</v>
+      </c>
+      <c r="I16" s="3">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>56</v>
+      </c>
+      <c r="G17">
+        <v>3598</v>
+      </c>
+      <c r="H17">
+        <f>G17+A17</f>
+        <v>3605</v>
+      </c>
+      <c r="I17" s="3">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>2456</v>
+      </c>
+      <c r="H18">
+        <f>G18+A18</f>
+        <v>2464</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>6548</v>
+      </c>
+      <c r="H19">
+        <f>G19+A19</f>
+        <v>6557</v>
+      </c>
+      <c r="I19" s="3">
+        <v>43848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <v>1562</v>
+      </c>
+      <c r="H20">
+        <f>G20+A20</f>
+        <v>1563</v>
+      </c>
+      <c r="I20" s="3">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>1582</v>
+      </c>
+      <c r="H21">
+        <f>G21+A21</f>
+        <v>1584</v>
+      </c>
+      <c r="I21" s="3">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>2587</v>
+      </c>
+      <c r="H22">
+        <f>G22+A22</f>
+        <v>2590</v>
+      </c>
+      <c r="I22" s="3">
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>3549</v>
+      </c>
+      <c r="H23">
+        <f>G23+A23</f>
+        <v>3553</v>
+      </c>
+      <c r="I23" s="3">
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>2468</v>
+      </c>
+      <c r="H24">
+        <f>G24+A24</f>
+        <v>2473</v>
+      </c>
+      <c r="I24" s="3">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>2554</v>
+      </c>
+      <c r="H25">
+        <f>G25+A25</f>
+        <v>2560</v>
+      </c>
+      <c r="I25" s="3">
+        <v>43854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>56</v>
+      </c>
+      <c r="G26">
+        <v>3598</v>
+      </c>
+      <c r="H26">
+        <f>G26+A26</f>
+        <v>3605</v>
+      </c>
+      <c r="I26" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>2456</v>
+      </c>
+      <c r="H27">
+        <f>G27+A27</f>
+        <v>2464</v>
+      </c>
+      <c r="I27" s="3">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>6548</v>
+      </c>
+      <c r="H28">
+        <f>G28+A28</f>
+        <v>6557</v>
+      </c>
+      <c r="I28" s="3">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>1562</v>
+      </c>
+      <c r="H29">
+        <f>G29+A29</f>
+        <v>1563</v>
+      </c>
+      <c r="I29" s="3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1582</v>
+      </c>
+      <c r="H30">
+        <f>G30+A30</f>
+        <v>1584</v>
+      </c>
+      <c r="I30" s="3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>36</v>
+      </c>
+      <c r="G31">
+        <v>2587</v>
+      </c>
+      <c r="H31">
+        <f>G31+A31</f>
+        <v>2590</v>
+      </c>
+      <c r="I31" s="3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>3549</v>
+      </c>
+      <c r="H32">
+        <f>G32+A32</f>
+        <v>3553</v>
+      </c>
+      <c r="I32" s="3">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>58</v>
+      </c>
+      <c r="G33">
+        <v>2468</v>
+      </c>
+      <c r="H33">
+        <f>G33+A33</f>
+        <v>2473</v>
+      </c>
+      <c r="I33" s="3">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>2554</v>
+      </c>
+      <c r="H34">
+        <f>G34+A34</f>
+        <v>2560</v>
+      </c>
+      <c r="I34" s="3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>56</v>
+      </c>
+      <c r="G35">
+        <v>3598</v>
+      </c>
+      <c r="H35">
+        <f>G35+A35</f>
+        <v>3605</v>
+      </c>
+      <c r="I35" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>2456</v>
+      </c>
+      <c r="H36">
+        <f>G36+A36</f>
+        <v>2464</v>
+      </c>
+      <c r="I36" s="3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>6548</v>
+      </c>
+      <c r="H37">
+        <f>G37+A37</f>
+        <v>6557</v>
+      </c>
+      <c r="I37" s="3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>1562</v>
+      </c>
+      <c r="H38">
+        <f>G38+A38</f>
+        <v>1563</v>
+      </c>
+      <c r="I38" s="3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>1582</v>
+      </c>
+      <c r="H39">
+        <f>G39+A39</f>
+        <v>1584</v>
+      </c>
+      <c r="I39" s="3">
+        <v>43868</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>2587</v>
+      </c>
+      <c r="H40">
+        <f>G40+A40</f>
+        <v>2590</v>
+      </c>
+      <c r="I40" s="3">
+        <v>43869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>3549</v>
+      </c>
+      <c r="H41">
+        <f>G41+A41</f>
+        <v>3553</v>
+      </c>
+      <c r="I41" s="3">
+        <v>43870</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>58</v>
+      </c>
+      <c r="G42">
+        <v>2468</v>
+      </c>
+      <c r="H42">
+        <f>G42+A42</f>
+        <v>2473</v>
+      </c>
+      <c r="I42" s="3">
+        <v>43871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>2554</v>
+      </c>
+      <c r="H43">
+        <f>G43+A43</f>
+        <v>2560</v>
+      </c>
+      <c r="I43" s="3">
+        <v>43872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>56</v>
+      </c>
+      <c r="G44">
+        <v>3598</v>
+      </c>
+      <c r="H44">
+        <f>G44+A44</f>
+        <v>3605</v>
+      </c>
+      <c r="I44" s="3">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+      <c r="G45">
+        <v>2456</v>
+      </c>
+      <c r="H45">
+        <f>G45+A45</f>
+        <v>2464</v>
+      </c>
+      <c r="I45" s="3">
+        <v>43874</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>6548</v>
+      </c>
+      <c r="H46">
+        <f>G46+A46</f>
+        <v>6557</v>
+      </c>
+      <c r="I46" s="3">
+        <v>43875</v>
+      </c>
+    </row>
     <row r="47" ht="12.75" customHeight="1"/>
     <row r="48" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
@@ -1504,6 +2692,157 @@
     <row r="847" ht="12.75" customHeight="1"/>
     <row r="848" ht="12.75" customHeight="1"/>
     <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/Tests/Samples.VerifyExcelStream.verified.xlsx
+++ b/src/Tests/Samples.VerifyExcelStream.verified.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="3396" windowWidth="30960" windowHeight="12120"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30" count="187">
   <si>
     <t>First Name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Formula</t>
-  </si>
-  <si>
-    <t>DOB</t>
   </si>
 </sst>
 </file>
@@ -157,14 +154,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,21 +476,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" sqref="K37"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" customHeight="true" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.46484375" customHeight="true" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.27734375" customWidth="1"/>
-    <col min="10" max="25" width="8.7109375" customWidth="1"/>
+    <col min="8" max="24" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:24" ht="12.75" customHeight="1">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -519,9 +513,7 @@
       <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -537,9 +529,8 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,11 +556,8 @@
         <f>G2+A2</f>
         <v>1563</v>
       </c>
-      <c r="I2" s="3">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -595,11 +583,8 @@
         <f>G3+A3</f>
         <v>1584</v>
       </c>
-      <c r="I3" s="3">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -625,11 +610,8 @@
         <f>G4+A4</f>
         <v>2590</v>
       </c>
-      <c r="I4" s="3">
-        <v>43833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -655,11 +637,8 @@
         <f>G5+A5</f>
         <v>3553</v>
       </c>
-      <c r="I5" s="3">
-        <v>43834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -685,11 +664,8 @@
         <f>G6+A6</f>
         <v>2473</v>
       </c>
-      <c r="I6" s="3">
-        <v>43835</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -715,11 +691,8 @@
         <f>G7+A7</f>
         <v>2560</v>
       </c>
-      <c r="I7" s="3">
-        <v>43836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -745,11 +718,8 @@
         <f>G8+A8</f>
         <v>3605</v>
       </c>
-      <c r="I8" s="3">
-        <v>43837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -775,11 +745,8 @@
         <f>G9+A9</f>
         <v>2464</v>
       </c>
-      <c r="I9" s="3">
-        <v>43838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -805,11 +772,8 @@
         <f>G10+A10</f>
         <v>6557</v>
       </c>
-      <c r="I10" s="3">
-        <v>43839</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -835,11 +799,8 @@
         <f>G11+A11</f>
         <v>1563</v>
       </c>
-      <c r="I11" s="3">
-        <v>43840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="A12">
         <v>2</v>
       </c>
@@ -865,11 +826,8 @@
         <f>G12+A12</f>
         <v>1584</v>
       </c>
-      <c r="I12" s="3">
-        <v>43841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="A13">
         <v>3</v>
       </c>
@@ -895,11 +853,8 @@
         <f>G13+A13</f>
         <v>2590</v>
       </c>
-      <c r="I13" s="3">
-        <v>43842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
       <c r="A14">
         <v>4</v>
       </c>
@@ -925,11 +880,8 @@
         <f>G14+A14</f>
         <v>3553</v>
       </c>
-      <c r="I14" s="3">
-        <v>43843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="A15">
         <v>5</v>
       </c>
@@ -955,11 +907,8 @@
         <f>G15+A15</f>
         <v>2473</v>
       </c>
-      <c r="I15" s="3">
-        <v>43844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="A16">
         <v>6</v>
       </c>
@@ -985,11 +934,8 @@
         <f>G16+A16</f>
         <v>2560</v>
       </c>
-      <c r="I16" s="3">
-        <v>43845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1015,11 +961,8 @@
         <f>G17+A17</f>
         <v>3605</v>
       </c>
-      <c r="I17" s="3">
-        <v>43846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1045,11 +988,8 @@
         <f>G18+A18</f>
         <v>2464</v>
       </c>
-      <c r="I18" s="3">
-        <v>43847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19">
         <v>9</v>
       </c>
@@ -1075,11 +1015,8 @@
         <f>G19+A19</f>
         <v>6557</v>
       </c>
-      <c r="I19" s="3">
-        <v>43848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1105,11 +1042,8 @@
         <f>G20+A20</f>
         <v>1563</v>
       </c>
-      <c r="I20" s="3">
-        <v>43849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1135,11 +1069,8 @@
         <f>G21+A21</f>
         <v>1584</v>
       </c>
-      <c r="I21" s="3">
-        <v>43850</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1165,11 +1096,8 @@
         <f>G22+A22</f>
         <v>2590</v>
       </c>
-      <c r="I22" s="3">
-        <v>43851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1195,11 +1123,8 @@
         <f>G23+A23</f>
         <v>3553</v>
       </c>
-      <c r="I23" s="3">
-        <v>43852</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1225,11 +1150,8 @@
         <f>G24+A24</f>
         <v>2473</v>
       </c>
-      <c r="I24" s="3">
-        <v>43853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1255,11 +1177,8 @@
         <f>G25+A25</f>
         <v>2560</v>
       </c>
-      <c r="I25" s="3">
-        <v>43854</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1285,11 +1204,8 @@
         <f>G26+A26</f>
         <v>3605</v>
       </c>
-      <c r="I26" s="3">
-        <v>43855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1315,11 +1231,8 @@
         <f>G27+A27</f>
         <v>2464</v>
       </c>
-      <c r="I27" s="3">
-        <v>43856</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1345,11 +1258,8 @@
         <f>G28+A28</f>
         <v>6557</v>
       </c>
-      <c r="I28" s="3">
-        <v>43857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1375,11 +1285,8 @@
         <f>G29+A29</f>
         <v>1563</v>
       </c>
-      <c r="I29" s="3">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1405,11 +1312,8 @@
         <f>G30+A30</f>
         <v>1584</v>
       </c>
-      <c r="I30" s="3">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1435,11 +1339,8 @@
         <f>G31+A31</f>
         <v>2590</v>
       </c>
-      <c r="I31" s="3">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1465,11 +1366,8 @@
         <f>G32+A32</f>
         <v>3553</v>
       </c>
-      <c r="I32" s="3">
-        <v>43861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="33" spans="1:8" ht="12.75" customHeight="1">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1495,11 +1393,8 @@
         <f>G33+A33</f>
         <v>2473</v>
       </c>
-      <c r="I33" s="3">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="34" spans="1:8" ht="12.75" customHeight="1">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1525,11 +1420,8 @@
         <f>G34+A34</f>
         <v>2560</v>
       </c>
-      <c r="I34" s="3">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1555,11 +1447,8 @@
         <f>G35+A35</f>
         <v>3605</v>
       </c>
-      <c r="I35" s="3">
-        <v>43864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1585,11 +1474,8 @@
         <f>G36+A36</f>
         <v>2464</v>
       </c>
-      <c r="I36" s="3">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:8" ht="12.75" customHeight="1">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1615,11 +1501,8 @@
         <f>G37+A37</f>
         <v>6557</v>
       </c>
-      <c r="I37" s="3">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1645,11 +1528,8 @@
         <f>G38+A38</f>
         <v>1563</v>
       </c>
-      <c r="I38" s="3">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="39" spans="1:8" ht="12.75" customHeight="1">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1675,11 +1555,8 @@
         <f>G39+A39</f>
         <v>1584</v>
       </c>
-      <c r="I39" s="3">
-        <v>43868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="40" spans="1:8" ht="12.75" customHeight="1">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1705,11 +1582,8 @@
         <f>G40+A40</f>
         <v>2590</v>
       </c>
-      <c r="I40" s="3">
-        <v>43869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="41" spans="1:8" ht="12.75" customHeight="1">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1735,11 +1609,8 @@
         <f>G41+A41</f>
         <v>3553</v>
       </c>
-      <c r="I41" s="3">
-        <v>43870</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1765,11 +1636,8 @@
         <f>G42+A42</f>
         <v>2473</v>
       </c>
-      <c r="I42" s="3">
-        <v>43871</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="43" spans="1:8" ht="12.75" customHeight="1">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1795,11 +1663,8 @@
         <f>G43+A43</f>
         <v>2560</v>
       </c>
-      <c r="I43" s="3">
-        <v>43872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="44" spans="1:8" ht="12.75" customHeight="1">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1825,11 +1690,8 @@
         <f>G44+A44</f>
         <v>3605</v>
       </c>
-      <c r="I44" s="3">
-        <v>43873</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1855,11 +1717,8 @@
         <f>G45+A45</f>
         <v>2464</v>
       </c>
-      <c r="I45" s="3">
-        <v>43874</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    </row>
+    <row r="46" spans="1:8" ht="12.75" customHeight="1">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1884,9 +1743,6 @@
       <c r="H46">
         <f>G46+A46</f>
         <v>6557</v>
-      </c>
-      <c r="I46" s="3">
-        <v>43875</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1"/>
